--- a/Code/Jupiter/Connect4/round_robin_out/round_robin_results.xlsx
+++ b/Code/Jupiter/Connect4/round_robin_out/round_robin_results.xlsx
@@ -444,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -458,6 +458,7 @@
     <col width="10" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -471,6 +472,11 @@
           <t>V01</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>V02</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -482,7 +488,10 @@
         <v>0.5</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>0.525</v>
+        <v>0.535</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>0.495</v>
       </c>
     </row>
     <row r="3">
@@ -492,14 +501,33 @@
         </is>
       </c>
       <c r="B3" s="3" t="n">
-        <v>0.475</v>
+        <v>0.465</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>0.5</v>
       </c>
+      <c r="D3" s="3" t="n">
+        <v>0.515</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>V02</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>0.5</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:C3">
+  <conditionalFormatting sqref="B2:D4">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -521,7 +549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -568,15 +596,50 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>PARITY_BONUS</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>VERT_MUL</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>VERT_3_READY_BONUS</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>TEMPO_W</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>PARITY_MOVE_W</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>PARITY_UNLOCK_W</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>THREATSPACE_W</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>W2</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>W3</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>W4</t>
         </is>
@@ -590,67 +653,166 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>V00 D1.15 FN0.9 FF0.6 CB10 W21 W31000</t>
+          <t>V00 D1.5 FN0.25 FF0.1 CB7 PB1 VM1.1 V30 TW0.25 PM0.2 PU0.1 TS0.5 W21 W31000</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.525</v>
+        <v>0.515</v>
       </c>
       <c r="D2" t="n">
-        <v>1.15</v>
+        <v>1.5</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9</v>
+        <v>0.25</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="G2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
       </c>
       <c r="I2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
         <v>1000</v>
       </c>
-      <c r="J2" t="n">
+      <c r="Q2" t="n">
         <v>100000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>V01</t>
+          <t>V02</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>V01 D1.15 FN0.85 FF0.6 CB10 W21 W31000</t>
+          <t>V02 D0.5 FN0.25 FF0.1 CB7 PB1 VM1.1 V30 TW0.25 PM0.2 PU0.1 TS0.5 W21 W31000</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.475</v>
+        <v>0.495</v>
       </c>
       <c r="D3" t="n">
-        <v>1.15</v>
+        <v>0.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0.85</v>
+        <v>0.25</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="G3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
       </c>
       <c r="I3" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
         <v>1000</v>
       </c>
-      <c r="J3" t="n">
+      <c r="Q3" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>V01</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>V01 D1 FN0.25 FF0.1 CB7 PB1 VM1.1 V30 TW0.25 PM0.2 PU0.1 TS0.5 W21 W31000</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q4" t="n">
         <v>100000</v>
       </c>
     </row>
@@ -665,7 +827,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -730,28 +892,94 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>V00 D1.15 FN0.9 FF0.6 CB10 W21 W31000</t>
+          <t>V00 D1.5 FN0.25 FF0.1 CB7 PB1 VM1.1 V30 TW0.25 PM0.2 PU0.1 TS0.5 W21 W31000</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>V01 D1.15 FN0.85 FF0.6 CB10 W21 W31000</t>
+          <t>V01 D1 FN0.25 FF0.1 CB7 PB1 VM1.1 V30 TW0.25 PM0.2 PU0.1 TS0.5 W21 W31000</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>10.5</v>
+        <v>107</v>
       </c>
       <c r="F2" t="n">
-        <v>9.5</v>
+        <v>93</v>
       </c>
       <c r="G2" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="H2" t="n">
-        <v>0.525</v>
+        <v>0.535</v>
       </c>
       <c r="I2" t="n">
-        <v>0.475</v>
+        <v>0.465</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>V00 D1.5 FN0.25 FF0.1 CB7 PB1 VM1.1 V30 TW0.25 PM0.2 PU0.1 TS0.5 W21 W31000</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>V02 D0.5 FN0.25 FF0.1 CB7 PB1 VM1.1 V30 TW0.25 PM0.2 PU0.1 TS0.5 W21 W31000</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>99</v>
+      </c>
+      <c r="F3" t="n">
+        <v>101</v>
+      </c>
+      <c r="G3" t="n">
+        <v>200</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.495</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.505</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>V01 D1 FN0.25 FF0.1 CB7 PB1 VM1.1 V30 TW0.25 PM0.2 PU0.1 TS0.5 W21 W31000</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>V02 D0.5 FN0.25 FF0.1 CB7 PB1 VM1.1 V30 TW0.25 PM0.2 PU0.1 TS0.5 W21 W31000</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>103</v>
+      </c>
+      <c r="F4" t="n">
+        <v>97</v>
+      </c>
+      <c r="G4" t="n">
+        <v>200</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.515</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.485</v>
       </c>
     </row>
   </sheetData>
